--- a/Week 7/Sensitivity analysis .xlsx
+++ b/Week 7/Sensitivity analysis .xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5030714_ad_unsw_edu_au/Documents/Work/Education/2023/GSOE9830-T3/Week 7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b8fa4194a2c3a9b/Obsidian/GSOE9830-Economic_Analysis/Week 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F872F222-6533-492B-84AC-0EB7F86AEBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{F872F222-6533-492B-84AC-0EB7F86AEBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECC63554-37A6-48BE-897D-CA5230859C0B}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{04D7B561-013F-40E7-8F8A-BBA4E0000148}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{04D7B561-013F-40E7-8F8A-BBA4E0000148}"/>
   </bookViews>
   <sheets>
     <sheet name="solution" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Initial cost </t>
   </si>
@@ -61,12 +62,24 @@
   <si>
     <t>sensitivity to annual avings</t>
   </si>
+  <si>
+    <t>Estimate initial cost</t>
+  </si>
+  <si>
+    <t>Sensitivity analysis</t>
+  </si>
+  <si>
+    <t>Maintanence</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,7 +131,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -561,6 +575,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -568,7 +583,447 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimate initial cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1910000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1720000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1530000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1340000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1150000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>770000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5B23-4E43-85E5-D911AE687EC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maintanence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1592000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1508000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1424000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1340000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1256000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1172000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1088000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5B23-4E43-85E5-D911AE687EC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saving</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>115999.99999999953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>524000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>932000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1340000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1748000.0000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2156000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2564000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-5B23-4E43-85E5-D911AE687EC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1232709183"/>
+        <c:axId val="1232712543"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1232709183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1232712543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1232712543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1232709183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -643,6 +1098,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1146,20 +1641,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>883025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>384923</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>178173</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1187,10 +2198,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C76FC91-F621-36D0-5224-08E9D9710A91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1228,7 +2280,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1334,7 +2386,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1476,7 +2528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1486,18 +2538,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B739DC0D-8B45-4E06-8C1A-E89CD4C1BDD4}">
   <dimension ref="B3:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +2558,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1514,7 +2566,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +2574,7 @@
         <v>680000</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1531,7 +2583,7 @@
         <v>1340000</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +2597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.7</v>
       </c>
@@ -1562,7 +2614,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.8</v>
       </c>
@@ -1579,7 +2631,7 @@
         <v>524000</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.9</v>
       </c>
@@ -1596,7 +2648,7 @@
         <v>932000</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0</v>
       </c>
@@ -1613,7 +2665,7 @@
         <v>1340000</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1.1000000000000001</v>
       </c>
@@ -1630,7 +2682,7 @@
         <v>1748000</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1.2</v>
       </c>
@@ -1647,7 +2699,7 @@
         <v>2156000</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1.3</v>
       </c>
@@ -1661,6 +2713,171 @@
       </c>
       <c r="E18">
         <f>-((C$3)+(6*C$4)-(6*C$5*B18))</f>
+        <v>2564000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8CD9D3-491E-4716-9355-289B50A02A19}">
+  <dimension ref="A2:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1900000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>140000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.7</v>
+      </c>
+      <c r="B4" s="1">
+        <f>$B$3*A4-$C$3*6+$D$3*6</f>
+        <v>1910000</v>
+      </c>
+      <c r="C4" s="1">
+        <f>$B$3-$C$3*A4*6+$D$3*6</f>
+        <v>1592000</v>
+      </c>
+      <c r="D4" s="1">
+        <f>$B$3-$C$3*6+$D$3*A4*6</f>
+        <v>115999.99999999953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.8</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B10" si="0">$B$3*A5-$C$3*6+$D$3*6</f>
+        <v>1720000</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C10" si="1">$B$3-$C$3*A5*6+$D$3*6</f>
+        <v>1508000</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D10" si="2">$B$3-$C$3*6+$D$3*A5*6</f>
+        <v>524000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.9</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>1530000</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>1424000</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>932000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>1340000</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>1340000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>1340000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>1150000</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>1256000</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>1748000.0000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.2</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>960000</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>1172000</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="2"/>
+        <v>2156000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.3</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>770000</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>1088000</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="2"/>
         <v>2564000</v>
       </c>
     </row>
